--- a/鱉蛋對照編號至9月15日.xlsx
+++ b/鱉蛋對照編號至9月15日.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="236">
   <si>
     <t>B1中</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,6 +963,10 @@
   </si>
   <si>
     <t>A3B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1368,7 +1375,7 @@
   <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1623,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -1637,11 +1644,11 @@
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -1649,11 +1656,11 @@
         <v>18</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -3109,42 +3116,54 @@
       <c r="B212" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C212" s="12"/>
+      <c r="C212" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C213" s="12"/>
+      <c r="C213" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C214" s="12"/>
+      <c r="C214" s="14">
+        <v>37</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C215" s="12"/>
+      <c r="C215" s="14">
+        <v>100</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C216" s="12"/>
+      <c r="C216" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C217" s="12"/>
+      <c r="C217" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
@@ -3176,35 +3195,39 @@
       <c r="B223" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="12"/>
+      <c r="C223" s="15"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C224" s="12"/>
+      <c r="C224" s="15"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C225" s="12"/>
+      <c r="C225" s="15"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C226" s="12"/>
+      <c r="C226" s="15">
+        <v>56</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C227" s="12"/>
+      <c r="C227" s="15">
+        <v>49</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">

--- a/鱉蛋對照編號至9月15日.xlsx
+++ b/鱉蛋對照編號至9月15日.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="252">
   <si>
     <t>B1中</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A5B5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月11日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,6 +959,78 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1B1沙上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1靠大門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1靠出口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5靠前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5靠後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,9 +1141,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,6 +1151,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2544,7 @@
       <c r="B135" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="12">
         <v>57</v>
       </c>
     </row>
@@ -2483,7 +2553,7 @@
       <c r="B136" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="12">
         <v>93</v>
       </c>
     </row>
@@ -2492,7 +2562,7 @@
       <c r="B137" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2501,7 +2571,7 @@
       <c r="B138" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="12">
         <v>39</v>
       </c>
     </row>
@@ -2515,7 +2585,7 @@
       <c r="B140" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2524,7 +2594,7 @@
       <c r="B141" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C141" s="13" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2538,7 +2608,7 @@
       <c r="B143" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="12">
         <v>52</v>
       </c>
     </row>
@@ -2547,7 +2617,7 @@
       <c r="B144" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C144" s="13">
+      <c r="C144" s="12">
         <v>101</v>
       </c>
     </row>
@@ -2556,7 +2626,7 @@
       <c r="B145" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="12">
         <v>33</v>
       </c>
     </row>
@@ -2565,7 +2635,7 @@
       <c r="B146" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C146" s="13">
+      <c r="C146" s="12">
         <v>19</v>
       </c>
     </row>
@@ -2579,7 +2649,7 @@
       <c r="B148" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C148" s="13">
+      <c r="C148" s="12">
         <v>93</v>
       </c>
     </row>
@@ -2588,7 +2658,7 @@
       <c r="B149" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="13">
         <v>37</v>
       </c>
     </row>
@@ -2597,7 +2667,7 @@
       <c r="B150" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C150" s="14">
+      <c r="C150" s="13">
         <v>101</v>
       </c>
     </row>
@@ -2606,7 +2676,7 @@
       <c r="B151" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2615,7 +2685,7 @@
       <c r="B152" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="12">
         <v>62</v>
       </c>
     </row>
@@ -2624,7 +2694,7 @@
       <c r="B153" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="12" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2638,7 +2708,7 @@
       <c r="B155" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2647,7 +2717,7 @@
       <c r="B156" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C156" s="13">
+      <c r="C156" s="12">
         <v>13</v>
       </c>
     </row>
@@ -2656,7 +2726,7 @@
       <c r="B157" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="12">
         <v>57</v>
       </c>
     </row>
@@ -2665,7 +2735,7 @@
       <c r="B158" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2674,7 +2744,7 @@
       <c r="B159" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2683,7 +2753,7 @@
       <c r="B160" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="13">
         <v>49</v>
       </c>
     </row>
@@ -2692,7 +2762,7 @@
       <c r="B161" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="12">
         <v>25</v>
       </c>
     </row>
@@ -2701,7 +2771,7 @@
       <c r="B162" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="13">
+      <c r="C162" s="12">
         <v>57</v>
       </c>
     </row>
@@ -2710,7 +2780,7 @@
       <c r="B163" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="12">
         <v>28</v>
       </c>
     </row>
@@ -2724,7 +2794,7 @@
       <c r="B165" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2733,7 +2803,7 @@
       <c r="B166" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C166" s="13">
+      <c r="C166" s="12">
         <v>64</v>
       </c>
     </row>
@@ -2747,7 +2817,7 @@
       <c r="B168" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2756,7 +2826,7 @@
       <c r="B169" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="12" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2770,7 +2840,7 @@
       <c r="B171" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2779,7 +2849,7 @@
       <c r="B172" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="13">
         <v>36</v>
       </c>
     </row>
@@ -2788,7 +2858,7 @@
       <c r="B173" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="13">
         <v>85</v>
       </c>
     </row>
@@ -2797,7 +2867,7 @@
       <c r="B174" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="13">
         <v>52</v>
       </c>
     </row>
@@ -2806,7 +2876,7 @@
       <c r="B175" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2815,7 +2885,7 @@
       <c r="B176" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2824,7 +2894,7 @@
       <c r="B177" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="12">
         <v>14</v>
       </c>
     </row>
@@ -2833,7 +2903,7 @@
       <c r="B178" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2842,7 +2912,7 @@
       <c r="B179" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2856,7 +2926,7 @@
       <c r="B181" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2865,7 +2935,7 @@
       <c r="B182" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2874,7 +2944,7 @@
       <c r="B183" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C183" s="13">
+      <c r="C183" s="12">
         <v>86</v>
       </c>
     </row>
@@ -2888,7 +2958,7 @@
       <c r="B185" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C185" s="13">
+      <c r="C185" s="12">
         <v>40</v>
       </c>
     </row>
@@ -2897,7 +2967,7 @@
       <c r="B186" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2906,7 +2976,7 @@
       <c r="B187" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2915,7 +2985,7 @@
       <c r="B188" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C188" s="13">
+      <c r="C188" s="12">
         <v>33</v>
       </c>
     </row>
@@ -2924,7 +2994,7 @@
       <c r="B189" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C189" s="13">
+      <c r="C189" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2938,7 +3008,7 @@
       <c r="B191" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C191" s="13">
+      <c r="C191" s="12">
         <v>35</v>
       </c>
     </row>
@@ -2947,7 +3017,7 @@
       <c r="B192" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C192" s="13">
+      <c r="C192" s="12">
         <v>19</v>
       </c>
     </row>
@@ -2961,7 +3031,7 @@
       <c r="B194" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C194" s="13">
+      <c r="C194" s="12">
         <v>57</v>
       </c>
     </row>
@@ -2970,7 +3040,7 @@
       <c r="B195" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2979,7 +3049,7 @@
       <c r="B196" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C196" s="13">
+      <c r="C196" s="12">
         <v>10</v>
       </c>
     </row>
@@ -2988,7 +3058,7 @@
       <c r="B197" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C197" s="13">
+      <c r="C197" s="12">
         <v>13</v>
       </c>
     </row>
@@ -2997,7 +3067,7 @@
       <c r="B198" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3006,7 +3076,7 @@
       <c r="B199" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C199" s="13">
+      <c r="C199" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3015,7 +3085,7 @@
       <c r="B200" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3024,7 +3094,7 @@
       <c r="B201" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3033,7 +3103,7 @@
       <c r="B202" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3042,7 +3112,7 @@
       <c r="B203" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C203" s="13">
+      <c r="C203" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3051,7 +3121,7 @@
       <c r="B204" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3060,7 +3130,7 @@
       <c r="B205" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C205" s="13">
+      <c r="C205" s="12">
         <v>18</v>
       </c>
     </row>
@@ -3069,7 +3139,7 @@
       <c r="B206" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3078,7 +3148,7 @@
       <c r="B207" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3087,7 +3157,7 @@
       <c r="B208" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3096,7 +3166,7 @@
       <c r="B209" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C209" s="13">
+      <c r="C209" s="12">
         <v>39</v>
       </c>
     </row>
@@ -3105,7 +3175,7 @@
       <c r="B210" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C210" s="13">
+      <c r="C210" s="12">
         <v>28</v>
       </c>
     </row>
@@ -3116,7 +3186,7 @@
       <c r="B212" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C212" s="15">
+      <c r="C212" s="14">
         <v>5</v>
       </c>
     </row>
@@ -3125,8 +3195,8 @@
       <c r="B213" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C213" s="15" t="s">
-        <v>235</v>
+      <c r="C213" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3134,7 +3204,7 @@
       <c r="B214" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C214" s="14">
+      <c r="C214" s="13">
         <v>37</v>
       </c>
     </row>
@@ -3143,7 +3213,7 @@
       <c r="B215" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C215" s="14">
+      <c r="C215" s="13">
         <v>100</v>
       </c>
     </row>
@@ -3152,8 +3222,8 @@
       <c r="B216" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C216" s="15" t="s">
-        <v>235</v>
+      <c r="C216" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3161,7 +3231,7 @@
       <c r="B217" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C217" s="15">
+      <c r="C217" s="14">
         <v>2</v>
       </c>
     </row>
@@ -3172,21 +3242,30 @@
       <c r="B219" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C219" s="12"/>
+      <c r="C219" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C220" s="12"/>
+      <c r="C220" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C221" s="12"/>
+      <c r="C221" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
@@ -3195,21 +3274,27 @@
       <c r="B223" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C223" s="15"/>
+      <c r="C223" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C224" s="15"/>
+      <c r="C224" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C225" s="15"/>
+      <c r="C225" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
@@ -3229,6 +3314,9 @@
         <v>49</v>
       </c>
     </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="2"/>
+    </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>195</v>
@@ -3236,21 +3324,30 @@
       <c r="B229" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C229" s="12"/>
+      <c r="C229" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C230" s="12"/>
+      <c r="C230" s="15" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C231" s="12"/>
+      <c r="C231" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
@@ -3259,28 +3356,39 @@
       <c r="B233" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C233" s="12"/>
+      <c r="C233" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C234" s="12"/>
+      <c r="C234" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C235" s="12"/>
+      <c r="C235" s="15">
+        <v>13</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C236" s="12"/>
+      <c r="C236" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
@@ -3289,181 +3397,343 @@
       <c r="B238" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C238" s="12"/>
+      <c r="C238" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C239" s="12"/>
+      <c r="C239" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C240" s="12"/>
+      <c r="C240" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C241" s="12"/>
+      <c r="C241" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C242" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="C242" s="17">
+        <v>99</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C243" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="C243" s="18">
+        <v>13</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C244" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="C244" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C246" s="12"/>
+      <c r="C246" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C247" s="12"/>
+      <c r="C247" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C248" s="12"/>
+        <v>219</v>
+      </c>
+      <c r="C248" s="17">
+        <v>57</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C249" s="12"/>
+        <v>220</v>
+      </c>
+      <c r="C249" s="17">
+        <v>13</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C250" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C251" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C252" s="12"/>
+        <v>223</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C253" s="12"/>
+        <v>224</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C254" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="C254" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C255" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C257" s="12"/>
+      <c r="C257" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C258" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="C258" s="15">
+        <v>92</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C259" s="12"/>
+        <v>227</v>
+      </c>
+      <c r="C259" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C261" s="12"/>
+        <v>228</v>
+      </c>
+      <c r="C261" s="15">
+        <v>13</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C262" s="12"/>
+        <v>229</v>
+      </c>
+      <c r="C262" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C263" s="12"/>
+        <v>230</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C264" s="12"/>
+        <v>231</v>
+      </c>
+      <c r="C264" s="15">
+        <v>107</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C265" s="12"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C267" s="15"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+      <c r="B268" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C268" s="15"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="B269" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C269" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+      <c r="B270" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C270" s="15"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="6"/>
+      <c r="B271" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C271" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+      <c r="B272" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C272" s="15"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+      <c r="B273" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C273" s="15"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+      <c r="B274" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C274" s="15"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C276" s="15"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C278" s="15"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="6"/>
+      <c r="B279" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C279" s="15"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+      <c r="B280" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C280" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
